--- a/reciept.xlsx
+++ b/reciept.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VJ\Reciept Maker\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C794D96-DE9A-4B9A-9728-1B83FC9709ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8FCC4-9E50-4C71-A407-9DF7CC4ADACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{A5F91AA1-AF26-4707-8ECD-7AD0EF7FB655}"/>
   </bookViews>
@@ -324,85 +324,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,8 +722,8 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -735,150 +735,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="33"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="15" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="15" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="15" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.75">
       <c r="A13" s="4" t="s">
@@ -887,14 +887,14 @@
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="5" t="s">
         <v>9</v>
       </c>
@@ -902,158 +902,158 @@
     <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="33"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="33"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="33"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="33"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="33"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="30" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="3">
         <f xml:space="preserve"> I14+I15+I16+I17+I18+I19 +I20+I21+I22+I23</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="30" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="30"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="3">
-        <f>0.06*(I24)</f>
+        <f>0.08*(I24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="15" t="s">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="17"/>
+      <c r="H26" s="7"/>
       <c r="I26" s="3">
         <f xml:space="preserve"> I24+I25</f>
         <v>0</v>
@@ -1061,14 +1061,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A24:F26"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A1:I6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G24:H24"/>
@@ -1078,13 +1077,14 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="G11:I12"/>
-    <mergeCell ref="A1:I6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F12"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A24:F26"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="6" scale="69" orientation="portrait" r:id="rId1"/>

--- a/reciept.xlsx
+++ b/reciept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VJ\Reciept Maker\Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaell\OneDrive\Documents\Venucci Jewelers\VJ\Reciept Maker\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B8FCC4-9E50-4C71-A407-9DF7CC4ADACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3961969D-D6DC-49F8-A228-4A587232A89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{A5F91AA1-AF26-4707-8ECD-7AD0EF7FB655}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{A5F91AA1-AF26-4707-8ECD-7AD0EF7FB655}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,8 +315,6 @@
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,85 +322,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,352 +732,353 @@
   </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="2" width="10.58984375" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
-    <col min="9" max="9" width="18.6796875" customWidth="1"/>
+    <col min="9" max="9" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" ht="14.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="33"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A7" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A8" s="6" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="6" t="s">
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="6" t="s">
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.75">
-      <c r="A13" s="4" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="5" t="s">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A24" s="8" t="s">
+    <row r="14" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+    </row>
+    <row r="17" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="42"/>
+    </row>
+    <row r="18" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+    </row>
+    <row r="19" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+    </row>
+    <row r="20" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+    </row>
+    <row r="21" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+    </row>
+    <row r="22" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+    </row>
+    <row r="23" spans="1:9" ht="48.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="24" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="24"/>
-      <c r="I24" s="3">
+      <c r="H24" s="28"/>
+      <c r="I24" s="1">
         <f xml:space="preserve"> I14+I15+I16+I17+I18+I19 +I20+I21+I22+I23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="24" t="s">
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="24"/>
-      <c r="I25" s="3">
+      <c r="H25" s="28"/>
+      <c r="I25" s="1">
         <f>0.08*(I24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.8">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="6" t="s">
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="3">
+      <c r="H26" s="15"/>
+      <c r="I26" s="1">
         <f xml:space="preserve"> I24+I25</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:I6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A9:F12"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A24:F26"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="C19:H19"/>
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G24:H24"/>
@@ -1077,14 +1088,13 @@
     <mergeCell ref="C22:H22"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="G11:I12"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A24:F26"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="A1:I6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F12"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <pageMargins left="0.25" right="0" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="6" scale="69" orientation="portrait" r:id="rId1"/>
